--- a/parts_lists/8088 V20.xlsx
+++ b/parts_lists/8088 V20.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">10k ohm Resistor</t>
   </si>
   <si>
-    <t xml:space="preserve">14.31818 MHz Crystal</t>
+    <t xml:space="preserve">24 MHz Crystal</t>
   </si>
   <si>
     <t xml:space="preserve">Keystone 9202</t>
@@ -290,10 +290,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.14"/>
   </cols>
